--- a/Survei Pengeluaran Harian Mahasiswa UC (Responses).xlsx
+++ b/Survei Pengeluaran Harian Mahasiswa UC (Responses).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\sem 3\Statistics for Business\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BD7097-F93D-4772-B9FF-1261C922BCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FFDD8F-69FB-4593-A938-5489B6ECB66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="54">
   <si>
     <t>Jenis Kelamin Anda</t>
   </si>
@@ -238,7 +238,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -350,6 +356,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2791,8 +2803,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4689,16 +4701,16 @@
       <c r="C62" s="18">
         <v>4</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="22">
         <v>22500</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="22">
         <v>4</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="22">
         <v>70000</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="22">
         <v>150000</v>
       </c>
       <c r="H62" s="14"/>
@@ -4706,91 +4718,301 @@
       <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="18">
+        <v>40000</v>
+      </c>
+      <c r="C63" s="18">
+        <v>2</v>
+      </c>
+      <c r="D63" s="22">
+        <v>60000</v>
+      </c>
+      <c r="E63" s="22">
+        <v>2</v>
+      </c>
+      <c r="F63" s="22">
+        <v>100000</v>
+      </c>
+      <c r="G63" s="22">
+        <v>100000</v>
+      </c>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-    </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="27">
+        <v>30000</v>
+      </c>
+      <c r="C64" s="27">
+        <v>2</v>
+      </c>
+      <c r="D64" s="27">
+        <v>70000</v>
+      </c>
+      <c r="E64" s="27">
+        <v>2</v>
+      </c>
+      <c r="F64" s="27">
+        <v>400000</v>
+      </c>
+      <c r="G64" s="27">
+        <v>500000</v>
+      </c>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="18">
+        <v>50000</v>
+      </c>
+      <c r="C65" s="18">
+        <v>3</v>
+      </c>
+      <c r="D65" s="22">
+        <v>75000</v>
+      </c>
+      <c r="E65" s="22">
+        <v>3</v>
+      </c>
+      <c r="F65" s="22">
+        <v>100000</v>
+      </c>
+      <c r="G65" s="22">
+        <v>100000</v>
+      </c>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
     </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="18">
+        <v>25000</v>
+      </c>
+      <c r="C66" s="18">
+        <v>4</v>
+      </c>
+      <c r="D66" s="22">
+        <v>50000</v>
+      </c>
+      <c r="E66" s="22">
+        <v>3</v>
+      </c>
+      <c r="F66" s="22">
+        <v>700000</v>
+      </c>
+      <c r="G66" s="22">
+        <v>200000</v>
+      </c>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
     </row>
-    <row r="67" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="18">
+        <v>30000</v>
+      </c>
+      <c r="C67" s="18">
+        <v>3</v>
+      </c>
+      <c r="D67" s="22">
+        <v>30000</v>
+      </c>
+      <c r="E67" s="22">
+        <v>3</v>
+      </c>
+      <c r="F67" s="22">
+        <v>100000</v>
+      </c>
+      <c r="G67" s="22">
+        <v>100000</v>
+      </c>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
     </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="18">
+        <v>40000</v>
+      </c>
+      <c r="C68" s="18">
+        <v>3</v>
+      </c>
+      <c r="D68" s="22">
+        <v>40000</v>
+      </c>
+      <c r="E68" s="22">
+        <v>3</v>
+      </c>
+      <c r="F68" s="22">
+        <v>150000</v>
+      </c>
+      <c r="G68" s="22">
+        <v>150000</v>
+      </c>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
     </row>
-    <row r="69" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="18">
+        <v>35000</v>
+      </c>
+      <c r="C69" s="18">
+        <v>3</v>
+      </c>
+      <c r="D69" s="22">
+        <v>35000</v>
+      </c>
+      <c r="E69" s="22">
+        <v>3</v>
+      </c>
+      <c r="F69" s="22">
+        <v>300000</v>
+      </c>
+      <c r="G69" s="22">
+        <v>200000</v>
+      </c>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
     </row>
-    <row r="70" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="18">
+        <v>17000</v>
+      </c>
+      <c r="C70" s="18">
+        <v>3</v>
+      </c>
+      <c r="D70" s="22">
+        <v>40000</v>
+      </c>
+      <c r="E70" s="22">
+        <v>3</v>
+      </c>
+      <c r="F70" s="22">
+        <v>50000</v>
+      </c>
+      <c r="G70" s="22">
+        <v>50000</v>
+      </c>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
     </row>
-    <row r="71" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="18">
+        <v>20000</v>
+      </c>
+      <c r="C71" s="18">
+        <v>2</v>
+      </c>
+      <c r="D71" s="22">
+        <v>40000</v>
+      </c>
+      <c r="E71" s="22">
+        <v>1</v>
+      </c>
+      <c r="F71" s="22">
+        <v>100000</v>
+      </c>
+      <c r="G71" s="22">
+        <v>150000</v>
+      </c>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
     </row>
-    <row r="72" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="18">
+        <v>40000</v>
+      </c>
+      <c r="C72" s="18">
+        <v>3</v>
+      </c>
+      <c r="D72" s="22">
+        <v>40000</v>
+      </c>
+      <c r="E72" s="22">
+        <v>2</v>
+      </c>
+      <c r="F72" s="22">
+        <v>150000</v>
+      </c>
+      <c r="G72" s="22">
+        <v>100000</v>
+      </c>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
     </row>
-    <row r="73" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
     </row>
-    <row r="74" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
     </row>
-    <row r="76" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
     </row>
-    <row r="77" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
     </row>
-    <row r="78" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
     </row>
-    <row r="80" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
